--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value691.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value691.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.32520802783549</v>
+        <v>1.264697432518005</v>
       </c>
       <c r="B1">
+        <v>1.365736722946167</v>
+      </c>
+      <c r="C1">
+        <v>1.541692137718201</v>
+      </c>
+      <c r="D1">
+        <v>2.402352094650269</v>
+      </c>
+      <c r="E1">
         <v>-1</v>
-      </c>
-      <c r="C1">
-        <v>1.314525534364722</v>
-      </c>
-      <c r="D1">
-        <v>0.2608275478439587</v>
-      </c>
-      <c r="E1">
-        <v>0.1620617993607207</v>
       </c>
     </row>
   </sheetData>
